--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harvey/IdeaProjects/CSC_8639_3.8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\IdeaProjects\CSC_8639_3.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC4892D-F39E-C34B-8847-462E02642F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CFDFC8-DA89-481C-BAB3-27E270F2191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E0DC5D81-F33F-5746-8742-A0C3CFF575C0}"/>
+    <workbookView xWindow="12585" yWindow="0" windowWidth="26235" windowHeight="21150" xr2:uid="{E0DC5D81-F33F-5746-8742-A0C3CFF575C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Selection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>Survey for Study</t>
   </si>
@@ -97,13 +97,187 @@
   </si>
   <si>
     <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>What is your highest level of education?</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Education (RQF)</t>
+  </si>
+  <si>
+    <t>A-level, National Diploma or equivalent</t>
+  </si>
+  <si>
+    <t>Higher National Certificate or equivalent</t>
+  </si>
+  <si>
+    <t>Higher National Diploma or equivalent</t>
+  </si>
+  <si>
+    <t>Non-honours bachelor's degree or equivalent</t>
+  </si>
+  <si>
+    <t>Bachelor's degree with honours or equivalent</t>
+  </si>
+  <si>
+    <t>Master's degree or equivalent</t>
+  </si>
+  <si>
+    <t>Doctoral degree or equivalent</t>
+  </si>
+  <si>
+    <t>GCSE or equivalent</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>26-35</t>
+  </si>
+  <si>
+    <t>18-21</t>
+  </si>
+  <si>
+    <t>22-25</t>
+  </si>
+  <si>
+    <t>36-50</t>
+  </si>
+  <si>
+    <t>50+</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Answers, please select your answer from the dropdown</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Banking and Finance</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Energy and Utilities</t>
+  </si>
+  <si>
+    <t>Government and Public Administration</t>
+  </si>
+  <si>
+    <t>Healthcare and Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Hospitality and Tourism</t>
+  </si>
+  <si>
+    <t>Information Technology (IT)</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Media and Communication</t>
+  </si>
+  <si>
+    <t>Nonprofit and Social Services</t>
+  </si>
+  <si>
+    <t>Professional Services (e.g., legal, consulting)</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Retail and Consumer Goods</t>
+  </si>
+  <si>
+    <t>Transportation and Logistics</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Which industry to do you work in?</t>
+  </si>
+  <si>
+    <t>1 - Daily</t>
+  </si>
+  <si>
+    <t>2 - Weekly</t>
+  </si>
+  <si>
+    <t>3 - Monthly</t>
+  </si>
+  <si>
+    <t>4 - Very rarely</t>
+  </si>
+  <si>
+    <t>5 - Never</t>
+  </si>
+  <si>
+    <t>How often do you review financial data?</t>
+  </si>
+  <si>
+    <t>How often do you review data visualisations? (e.g. graphs, charts, visual elements)</t>
+  </si>
+  <si>
+    <t>Scale 1 - 5</t>
+  </si>
+  <si>
+    <t>Do you review financial data as part of your job?</t>
+  </si>
+  <si>
+    <t>Do you use data visualisation as part of your job?</t>
+  </si>
+  <si>
+    <t>If other, please specify (free text field)</t>
+  </si>
+  <si>
+    <t>YN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Do you review financial data?</t>
+  </si>
+  <si>
+    <t>Non-binary</t>
+  </si>
+  <si>
+    <t>Do you use data visualisations?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +287,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,9 +322,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,55 +657,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD433946-6863-D44B-AE1F-80F311E332B4}">
-  <dimension ref="A1:A4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{DD02B385-640C-E449-9F9A-E715786E8855}">
-      <formula1>"Male, Femal, Other, Prefer not to say"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{C3BE3795-E62A-EA47-B9E2-A8755E0E1FEC}">
-      <formula1>"0-17, 18-21, 22-25,26-35, 36-50, 50+, Prefer not to say"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3BE3795-E62A-EA47-B9E2-A8755E0E1FEC}">
+          <x14:formula1>
+            <xm:f>Selection!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3FC04345-6541-4D41-B685-B4A8865A2CC3}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$16</xm:f>
+            <xm:f>Selection!$C$2:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D50ECA53-73CF-4631-BC8B-C03B76975603}">
+          <x14:formula1>
+            <xm:f>Selection!$D$2:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7B30CB5-51F9-4298-810E-0C807ABA75E6}">
+          <x14:formula1>
+            <xm:f>Selection!$F$2:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C29CF41-7614-4862-869A-E4AD4B61F30F}">
+          <x14:formula1>
+            <xm:f>Selection!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0297983-A784-423B-8114-FA64207BEC05}">
+          <x14:formula1>
+            <xm:f>Selection!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10 C13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD02B385-640C-E449-9F9A-E715786E8855}">
+          <x14:formula1>
+            <xm:f>Selection!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -515,95 +839,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF67C4D5-DE5B-7B4E-B32C-AE51249971E3}">
-  <dimension ref="A1:A16"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>